--- a/test.xlsx
+++ b/test.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="测试数据" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="销售数据" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -505,7 +507,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
         <v>30</v>
       </c>
@@ -514,7 +515,6 @@
           <t>深圳</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -536,12 +536,7 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
+    <row r="7"/>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
@@ -654,4 +649,40 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>